--- a/第3次 第七章/T2/data.xlsx
+++ b/第3次 第七章/T2/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文档\大三上\数值代数\第3次 第七章\T2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B10769-61EA-4264-B0D0-0130E4A35879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3F869-10ED-4064-BFBF-F1BC36CC358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>阶数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +49,26 @@
   </si>
   <si>
     <t>Givens-QR分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,11 +112,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,6 +1498,1391 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>误差</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.8099000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8294999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1644999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2318999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9903E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0639000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5367999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5058E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0808000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2386000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6558E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1752E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8134000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5890000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5218999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6442999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2731999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3939999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3387</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0417000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1998000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3246000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3851</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4849000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-734B-4F64-9373-37556953F179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>扩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>6.6898999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7113999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8762999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2815E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3537E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4084000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9186999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0903999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1866E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4994000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6341000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7294</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8220999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0101000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1288999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2141999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2975000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4617000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5633999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6535000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-734B-4F64-9373-37556953F179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.8099000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8294999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1644999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2318999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9903E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0639000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5367999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5058E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0808000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2386000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6558E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1752E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8134000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5890000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5218999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6337999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9483000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4904999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4256E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0882000000000003E-13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9571999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5620999999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8751999999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3031999999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.1642000000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1460999999999999E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-734B-4F64-9373-37556953F179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.8099000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8294999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1644999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2318999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9903E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0639000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5367999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5058E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0808000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2386000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6558E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1752E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8134000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5890000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5218999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6337999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9483000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4904999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4256E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3663000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0332000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1294999999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9395000000000003E-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.38E-13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3612999999999998E-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0698999999999999E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-734B-4F64-9373-37556953F179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.8099000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8294999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1644999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2318999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9903E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0639000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5367999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5058E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0808000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2386000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6558E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1752E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8134000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5890000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5218999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6337999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9483000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4904999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4256E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6136999999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6067E-12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5705000000000004E-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5946999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2765999999999998E-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0193E-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3898E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-734B-4F64-9373-37556953F179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1551265871"/>
+        <c:axId val="1963332863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1551265871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1963332863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1963332863"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551265871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1551,6 +2963,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2564,6 +4016,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2654,6 +4622,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37E90EE-399D-8800-0331-9097947A4717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2927,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3133,4 +5142,571 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CFCDCC-CFA1-498E-8A45-76333E0B6C04}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.8099000000000001E-5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.6898999999999998E-5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.8099000000000001E-5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.8099000000000001E-5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.8099000000000001E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.8294999999999998E-5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7113999999999999E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.8294999999999998E-5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.8294999999999998E-5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.8294999999999998E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.1644999999999996E-5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.8762999999999997E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.1644999999999996E-5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.1644999999999996E-5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.1644999999999996E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.2318999999999999E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.2815E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.2318999999999999E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.2318999999999999E-4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.2318999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.9903E-4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.3537E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.9903E-4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.9903E-4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.9903E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.0639000000000003E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.4084000000000002E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.0639000000000003E-4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.0639000000000003E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.0639000000000003E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.5367999999999998E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.9186999999999998E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.5367999999999998E-4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.5367999999999998E-4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.5367999999999998E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.5058E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.0903999999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.5058E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.5058E-4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.5058E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.0808000000000002E-4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.1086</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.0808000000000002E-4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.0808000000000002E-4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.0808000000000002E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.2386000000000001E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.2927</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.2386000000000001E-3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.2386000000000001E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.2386000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.6558E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.3841000000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.6558E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.6558E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.6558E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.1752E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.1866E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.1752E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.1752E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.1752E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.8134000000000002E-3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.3490000000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.8134000000000002E-3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.8134000000000002E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.8134000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3.5890000000000002E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.4994000000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.5890000000000002E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.5890000000000002E-3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.5890000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4.5218999999999997E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.6341000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.5218999999999997E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.5218999999999997E-3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.5218999999999997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.6442999999999997E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.7294</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.6337999999999996E-3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.6337999999999996E-3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5.6337999999999996E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.2731999999999996E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.8220999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.9483000000000001E-3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.9483000000000001E-3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.9483000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.3939999999999999E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.9125999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.4904999999999998E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.4904999999999998E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8.4904999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.3387</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.0101000000000004</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.4256E-3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.4256E-3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.4256E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.7593999999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.1288999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6.0882000000000003E-13</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.3663000000000001E-13</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.6136999999999998E-13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3.0417000000000001</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.2141999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6.9571999999999999E-13</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.0332000000000001E-13</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.6067E-12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3.1998000000000002</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.2975000000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.5620999999999999E-12</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.1294999999999999E-12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.5705000000000004E-12</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3.2629000000000001</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.8751999999999999E-12</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.9395000000000003E-12</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7.5946999999999999E-13</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.3246000000000002</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.4617000000000004</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.3031999999999999E-12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.38E-13</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.2765999999999998E-12</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.3851</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.5633999999999997</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5.1642000000000001E-12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5.3612999999999998E-12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.0193E-12</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3.4849000000000001</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4.6535000000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.1460999999999999E-12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.0698999999999999E-12</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.3898E-12</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>